--- a/src/게시판테이블명세서.xlsx
+++ b/src/게시판테이블명세서.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="5" rupBuild="9.104.197.51428"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\db\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="820" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7410" tabRatio="820" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스 명세서" sheetId="1" r:id="rId1"/>
@@ -13,28 +18,15 @@
     <sheet name="게시판 테이블  명세서" sheetId="5" r:id="rId4"/>
     <sheet name="아바타 테이블 명세서" sheetId="10" r:id="rId5"/>
     <sheet name="방명록 테이블 명세서" sheetId="3" r:id="rId6"/>
+    <sheet name="댓글게시판 테이블 명세서" sheetId="12" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="208">
   <si>
     <t>Project Name</t>
   </si>
@@ -124,9 +116,6 @@
   </si>
   <si>
     <t>CK</t>
-  </si>
-  <si>
-    <t>노출여부</t>
   </si>
   <si>
     <t>담당자</t>
@@ -317,6 +306,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>YSDATE</t>
     </r>
@@ -344,9 +335,6 @@
   </si>
   <si>
     <t>O</t>
-  </si>
-  <si>
-    <t>△</t>
   </si>
   <si>
     <t>O</t>
@@ -372,6 +360,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 10글자</t>
     </r>
@@ -463,6 +453,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>HECK(ISSHOW IN ('Y', 'N'))</t>
     </r>
@@ -479,6 +471,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>EFERENCES member(mno)</t>
     </r>
@@ -499,390 +493,440 @@
     <t>아바타번호</t>
   </si>
   <si>
-    <t>아바타이름</t>
-  </si>
-  <si>
-    <t>저장이름</t>
-  </si>
-  <si>
     <t>저장경로</t>
   </si>
   <si>
-    <t>파일크기</t>
-  </si>
-  <si>
     <t>ANO</t>
   </si>
   <si>
-    <t>ASAVE</t>
-  </si>
-  <si>
-    <t>ANAME</t>
-  </si>
-  <si>
-    <t>ALOC</t>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>REFERENCES avatar(ano)</t>
+  </si>
+  <si>
+    <t>파일길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILENAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ISSHOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NUMBER</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-  </si>
-  <si>
-    <t>ASIZE</t>
-  </si>
-  <si>
-    <t>CHAR</t>
-  </si>
-  <si>
-    <t>20 CHAR</t>
-  </si>
-  <si>
-    <t>20 CHAR</t>
-  </si>
-  <si>
-    <t>200 CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-  </si>
-  <si>
-    <t>D:\study\db\src</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>작성일</t>
-  </si>
-  <si>
-    <t>ADATE</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>SYSDATE</t>
-  </si>
-  <si>
-    <t>작성자</t>
-  </si>
-  <si>
-    <t>AWRITER</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>5</t>
+      <t>C</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> CHAR</t>
+      <t>HECK(ISSHOW IN ('Y','N'))</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">REFERENCE </t>
-  </si>
-  <si>
-    <t>REFERENCE member(name)</t>
-  </si>
-  <si>
-    <t>15 CHAR</t>
-  </si>
-  <si>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK(GEN IN ('F','M'))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방명록정보테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BODY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFERENCES member(mno)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
-      <t>15 CHAR</t>
+      <t>YSDATE</t>
     </r>
-  </si>
-  <si>
-    <t>REFERENCES member(name)</t>
-  </si>
-  <si>
-    <t>CHECK(ASAVE LIKE '%.jpg</t>
-  </si>
-  <si>
-    <t>CHECK(ASAVE LIKE '%.jpg')</t>
-  </si>
-  <si>
-    <t>REFERENCES ( A</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>REFERENCES avatar(ano)</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>방명록번호</t>
-  </si>
-  <si>
-    <t>방명록작성자</t>
-  </si>
-  <si>
-    <t>방명록내용</t>
-  </si>
-  <si>
-    <t>작성날짜</t>
-  </si>
-  <si>
-    <t>BNAME</t>
-  </si>
-  <si>
-    <t>BBODY</t>
-  </si>
-  <si>
-    <t>BDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개여부</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위글번호</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글게시판 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글내용</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebno</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>upno</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>isshow</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdate</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSDATE</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK(ISSHOW IN ('Y','N'))</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>REFERENCES member(mno)</t>
-  </si>
-  <si>
-    <t>Y'</t>
-  </si>
-  <si>
-    <t>CHECK(ISSHOW IN ('Y', 'N'))</t>
-  </si>
-  <si>
-    <t>'Y'</t>
-  </si>
-  <si>
-    <t>AWRIT</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="D2Coding"/>
-      <color rgb="FF000000"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFFFFFF"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="22.0"/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="20.0"/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
       <name val="D2Coding"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <name val="돋움"/>
-      <color rgb="FF000000"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="맑은 고딕"/>
-      <color theme="0" tint="-0.150000"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="맑은 고딕"/>
-      <color theme="0" tint="-0.150000"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="맑은 고딕"/>
-      <color theme="0" tint="-0.049990"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
-      <color theme="10"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
-      <color theme="11"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FFFF0000"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color theme="3"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF7F7F7F"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -904,19 +948,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.049990"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349990"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499980"/>
+        <fgColor theme="0" tint="-0.49995422223578601"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -928,203 +972,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
+        <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="47">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1139,6 +998,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1153,6 +1013,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1167,6 +1028,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
@@ -1181,6 +1043,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1195,6 +1058,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
@@ -1209,6 +1073,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1223,6 +1088,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
@@ -1235,6 +1101,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
@@ -1247,6 +1114,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
@@ -1259,6 +1127,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
@@ -1271,6 +1140,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1283,6 +1153,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1295,6 +1166,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
@@ -1309,6 +1181,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1323,6 +1196,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1337,6 +1211,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
@@ -1347,6 +1222,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
@@ -1361,6 +1237,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1375,6 +1252,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1387,6 +1265,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
@@ -1397,6 +1276,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1409,6 +1289,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
@@ -1419,6 +1300,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1431,6 +1313,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
@@ -1441,6 +1324,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
@@ -1453,6 +1337,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
@@ -1465,6 +1350,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
@@ -1477,6 +1363,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thick">
@@ -1489,6 +1376,7 @@
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
@@ -1499,6 +1387,7 @@
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
@@ -1511,6 +1400,7 @@
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
@@ -1523,6 +1413,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
@@ -1535,6 +1426,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
@@ -1547,6 +1439,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1561,6 +1454,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1573,6 +1467,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1585,6 +1480,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
@@ -1597,6 +1493,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
@@ -1607,6 +1504,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
@@ -1617,6 +1515,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
@@ -1627,6 +1526,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
@@ -1635,6 +1535,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
@@ -1645,6 +1546,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1659,6 +1561,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1673,6 +1576,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1687,261 +1591,20 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="51" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="52" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="51" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="53" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1970,25 +1633,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -2003,7 +1666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2015,7 +1678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2024,34 +1687,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -2060,298 +1723,263 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="9" builtinId="11"/>
-    <cellStyle name="계산" xfId="17" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
-    <cellStyle name="메모" xfId="8" builtinId="10"/>
-    <cellStyle name="백분율" xfId="5" builtinId="5"/>
-    <cellStyle name="보통" xfId="23" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="3" builtinId="3"/>
+  <cellStyles count="4">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="20" builtinId="25"/>
-    <cellStyle name="입력" xfId="15" builtinId="20"/>
-    <cellStyle name="제목" xfId="10" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
-    <cellStyle name="좋음" xfId="21" builtinId="26"/>
-    <cellStyle name="출력" xfId="16" builtinId="21"/>
-    <cellStyle name="통화" xfId="4" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2641,92 +2269,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87500000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="45.63000107" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" s="0" customFormat="1" ht="48.750000" customHeight="1">
-      <c r="C2" s="63" t="s">
+    <row r="2" spans="3:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-    </row>
-    <row r="3" s="0" customFormat="1"/>
-    <row r="4" spans="3:5">
-      <c r="C4" s="68" t="s">
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="69"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" ht="17.250000">
-      <c r="C5" s="61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="62"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="69"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="55">
         <v>1521</v>
       </c>
     </row>
-    <row r="9" spans="3:5" s="0" customFormat="1">
-      <c r="C9" s="66" t="s">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="67"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="56" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="3:5" s="0" customFormat="1">
-      <c r="C10" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="56" t="s">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="78"/>
+      <c r="E11" s="50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="3:5" ht="17.250000">
-      <c r="C11" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" ht="17.250000">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="8" t="s">
         <v>15</v>
       </c>
@@ -2737,156 +2364,156 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5">
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>4</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>5</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>6</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>7</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>8</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>9</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>10</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>11</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>12</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>13</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>14</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>15</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
         <v>16</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" s="3">
         <v>17</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="3:5">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" s="3">
         <v>18</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="3:5">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32" s="3">
         <v>19</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="3:5" ht="17.250000">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <v>20</v>
       </c>
@@ -2895,44 +2522,44 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.00000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="16.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="72.25499725" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="72.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="36.000000" customHeight="1">
-      <c r="B2" s="70" t="s">
+    <row r="2" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
-    </row>
-    <row r="4" spans="2:4" s="14" customFormat="1" ht="26.100000" customHeight="1">
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+    </row>
+    <row r="4" spans="2:4" s="14" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
@@ -2943,119 +2570,119 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="15">
         <v>1</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>3</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>44</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>4</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="54"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>7</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>8</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>9</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>10</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>11</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>12</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>13</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>14</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>15</v>
       </c>
@@ -3067,114 +2694,114 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="c0504d"/>
+    <tabColor rgb="FFC0504D"/>
   </sheetPr>
-  <dimension ref="B2:P28"/>
+  <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87500000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="7.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="18.25499916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="17.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="11.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="10" width="7.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="11" max="12" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="13" max="13" width="36.63000107" customWidth="1" outlineLevel="0"/>
-    <col min="14" max="14" width="8.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="15" max="15" width="27.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="16" max="16384" width="8.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="36.625" customWidth="1"/>
+    <col min="14" max="14" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="27" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.250000" customHeight="1"/>
-    <row r="2" spans="2:15">
-      <c r="B2" s="73" t="s">
+    <row r="1" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75" t="s">
+      <c r="C2" s="101"/>
+      <c r="D2" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="78" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80" t="s">
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="109"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112">
+        <v>45345</v>
+      </c>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="82"/>
-    </row>
-    <row r="4" spans="2:15" ht="17.250000">
-      <c r="B4" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85">
-        <v>45345</v>
-      </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="90"/>
-    </row>
-    <row r="5" spans="2:15" ht="24.750000">
-      <c r="B5" s="91" t="s">
+      <c r="M4" s="117"/>
+    </row>
+    <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="B5" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="93"/>
-    </row>
-    <row r="6" spans="2:15" ht="17.250000">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="89"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
@@ -3212,24 +2839,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="46">
         <v>1</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="104">
+        <v>74</v>
+      </c>
+      <c r="F7" s="61">
         <v>4</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="28"/>
@@ -3238,268 +2865,270 @@
       <c r="L7" s="18"/>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="47">
         <v>2</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="105" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>83</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="20"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="47">
         <v>3</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="105" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>84</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>95</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="47">
         <v>4</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="105" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>85</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="20"/>
       <c r="O10" s="26"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="47">
         <v>5</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="105" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>86</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="109" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="M11" s="66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="47">
         <v>6</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="105" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>87</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="16"/>
       <c r="M12" s="41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="47">
         <v>7</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="105"/>
+        <v>79</v>
+      </c>
+      <c r="F13" s="62"/>
       <c r="G13" s="16"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13" s="16"/>
       <c r="L13" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M13" s="41"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="47">
         <v>8</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="105">
+        <v>80</v>
+      </c>
+      <c r="F14" s="62">
         <v>1</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L14" s="30"/>
       <c r="M14" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="47">
         <v>9</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="35" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="I15" s="37"/>
       <c r="J15" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K15" s="37"/>
-      <c r="L15" s="35"/>
+      <c r="L15" s="35">
+        <v>10</v>
+      </c>
       <c r="M15" s="40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="47">
         <v>10</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="106">
+        <v>82</v>
+      </c>
+      <c r="F16" s="63">
         <v>1</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
       <c r="J16" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M16" s="60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="47">
         <v>11</v>
       </c>
@@ -3515,7 +3144,7 @@
       <c r="L17" s="38"/>
       <c r="M17" s="60"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="47">
         <v>12</v>
       </c>
@@ -3529,11 +3158,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
-      <c r="M18" s="107" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
+      <c r="M18" s="64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="47">
         <v>13</v>
       </c>
@@ -3547,9 +3176,9 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="108"/>
-    </row>
-    <row r="20" spans="2:16">
+      <c r="M19" s="65"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="47">
         <v>14</v>
       </c>
@@ -3565,7 +3194,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="47">
         <v>15</v>
       </c>
@@ -3582,7 +3211,7 @@
       <c r="M21" s="20"/>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="47">
         <v>16</v>
       </c>
@@ -3598,7 +3227,7 @@
       <c r="L22" s="16"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="47">
         <v>17</v>
       </c>
@@ -3614,7 +3243,7 @@
       <c r="L23" s="36"/>
       <c r="M23" s="42"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="47">
         <v>18</v>
       </c>
@@ -3630,7 +3259,7 @@
       <c r="L24" s="36"/>
       <c r="M24" s="42"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="47">
         <v>19</v>
       </c>
@@ -3646,7 +3275,7 @@
       <c r="L25" s="16"/>
       <c r="M25" s="20"/>
     </row>
-    <row r="26" spans="2:16" ht="17.250000">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="48">
         <v>20</v>
       </c>
@@ -3662,41 +3291,41 @@
       <c r="L26" s="22"/>
       <c r="M26" s="25"/>
     </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="94" t="s">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="98"/>
-    </row>
-    <row r="28" spans="2:16" ht="17.250000">
-      <c r="B28" s="99" t="s">
+      <c r="C27" s="91"/>
+      <c r="D27" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="94"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="103"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3715,114 +3344,114 @@
     <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="c0504d"/>
+    <tabColor rgb="FFC0504D"/>
   </sheetPr>
-  <dimension ref="B2:P28"/>
+  <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87500000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="7.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="18.25499916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="17.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="11.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="10" width="7.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="11" max="12" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="13" max="13" width="30.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="14" max="14" width="8.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="15" max="15" width="27.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="16" max="16384" width="8.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="30.625" customWidth="1"/>
+    <col min="14" max="14" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="27" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.250000" customHeight="1"/>
-    <row r="2" spans="2:15">
-      <c r="B2" s="73" t="s">
+    <row r="1" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75" t="s">
+      <c r="C2" s="101"/>
+      <c r="D2" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="109"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112">
+        <v>45345</v>
+      </c>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="82"/>
-    </row>
-    <row r="4" spans="2:15" ht="17.250000">
-      <c r="B4" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85">
-        <v>45345</v>
-      </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="90"/>
-    </row>
-    <row r="5" spans="2:15" ht="24.750000">
-      <c r="B5" s="91" t="s">
+      <c r="M4" s="117"/>
+    </row>
+    <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="B5" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="93"/>
-    </row>
-    <row r="6" spans="2:15" ht="17.250000">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="89"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
@@ -3860,24 +3489,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="46">
         <v>1</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="104">
+        <v>125</v>
+      </c>
+      <c r="F7" s="61">
         <v>6</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="28"/>
@@ -3886,136 +3515,136 @@
       <c r="L7" s="18"/>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="47">
         <v>2</v>
       </c>
-      <c r="C8" s="110" t="s">
-        <v>112</v>
+      <c r="C8" s="67" t="s">
+        <v>110</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="105" t="s">
-        <v>129</v>
+        <v>122</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>127</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="20"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="47">
         <v>3</v>
       </c>
-      <c r="C9" s="110" t="s">
-        <v>113</v>
+      <c r="C9" s="67" t="s">
+        <v>111</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="105">
+        <v>123</v>
+      </c>
+      <c r="F9" s="62">
         <v>4000</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="41"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="47">
         <v>4</v>
       </c>
-      <c r="C10" s="110" t="s">
-        <v>114</v>
+      <c r="C10" s="67" t="s">
+        <v>112</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="105">
+        <v>124</v>
+      </c>
+      <c r="F10" s="62">
         <v>4</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O10" s="26"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="47">
         <v>5</v>
       </c>
-      <c r="C11" s="110" t="s">
-        <v>115</v>
+      <c r="C11" s="67" t="s">
+        <v>113</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="105"/>
+        <v>126</v>
+      </c>
+      <c r="F11" s="62"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="30"/>
       <c r="J11" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="47">
         <v>6</v>
       </c>
-      <c r="C12" s="110" t="s">
-        <v>116</v>
+      <c r="C12" s="67" t="s">
+        <v>114</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="105">
+        <v>81</v>
+      </c>
+      <c r="F12" s="62">
         <v>5</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="30"/>
       <c r="J12" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="30">
@@ -4023,46 +3652,46 @@
       </c>
       <c r="M12" s="41"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="47">
         <v>7</v>
       </c>
-      <c r="C13" s="110" t="s">
-        <v>117</v>
+      <c r="C13" s="67" t="s">
+        <v>115</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="105">
+        <v>82</v>
+      </c>
+      <c r="F13" s="62">
         <v>1</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L13" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="M13" s="115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="47">
         <v>8</v>
       </c>
-      <c r="C14" s="110"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -4071,14 +3700,14 @@
       <c r="L14" s="30"/>
       <c r="M14" s="41"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="47">
         <v>9</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -4087,7 +3716,7 @@
       <c r="L15" s="38"/>
       <c r="M15" s="60"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="47">
         <v>10</v>
       </c>
@@ -4103,14 +3732,14 @@
       <c r="L16" s="35"/>
       <c r="M16" s="40"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="47">
         <v>11</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
-      <c r="F17" s="106"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
@@ -4119,14 +3748,14 @@
       <c r="L17" s="38"/>
       <c r="M17" s="60"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="47">
         <v>12</v>
       </c>
-      <c r="C18" s="113"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="111"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -4135,14 +3764,14 @@
       <c r="L18" s="31"/>
       <c r="M18" s="41"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="47">
         <v>13</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="111"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -4151,14 +3780,14 @@
       <c r="L19" s="16"/>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="47">
         <v>14</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="111"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -4167,14 +3796,14 @@
       <c r="L20" s="16"/>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="47">
         <v>15</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="111"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -4184,14 +3813,14 @@
       <c r="M21" s="20"/>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="47">
         <v>16</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="111"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -4200,7 +3829,7 @@
       <c r="L22" s="16"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="47">
         <v>17</v>
       </c>
@@ -4216,7 +3845,7 @@
       <c r="L23" s="36"/>
       <c r="M23" s="42"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="47">
         <v>18</v>
       </c>
@@ -4232,14 +3861,14 @@
       <c r="L24" s="36"/>
       <c r="M24" s="42"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="47">
         <v>19</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="111"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -4248,14 +3877,14 @@
       <c r="L25" s="16"/>
       <c r="M25" s="20"/>
     </row>
-    <row r="26" spans="2:16" ht="17.250000">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="48">
         <v>20</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
-      <c r="F26" s="114"/>
+      <c r="F26" s="71"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
@@ -4264,41 +3893,41 @@
       <c r="L26" s="22"/>
       <c r="M26" s="25"/>
     </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="94" t="s">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="98"/>
-    </row>
-    <row r="28" spans="2:16" ht="17.250000">
-      <c r="B28" s="99" t="s">
+      <c r="C27" s="91"/>
+      <c r="D27" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="94"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="101" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="103"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4317,115 +3946,115 @@
     <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="c0504d"/>
+    <tabColor rgb="FFC0504D"/>
   </sheetPr>
-  <dimension ref="B2:P28"/>
+  <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87500000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="7.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="18.25499916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="17.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="11.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="10" width="7.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="11" max="11" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="12" width="17.12999916" customWidth="1" outlineLevel="0"/>
-    <col min="13" max="13" width="30.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="14" max="14" width="8.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="15" max="15" width="27.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="16" max="16384" width="8.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="13" width="30.625" customWidth="1"/>
+    <col min="14" max="14" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="27" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.250000" customHeight="1"/>
-    <row r="2" spans="2:15">
-      <c r="B2" s="73" t="s">
+    <row r="1" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="78" t="s">
+      <c r="C2" s="101"/>
+      <c r="D2" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="82"/>
-    </row>
-    <row r="4" spans="2:15" ht="17.250000">
-      <c r="B4" s="83" t="s">
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="109"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85">
+      <c r="C4" s="111"/>
+      <c r="D4" s="112">
         <v>45345</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88" t="s">
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="90"/>
-    </row>
-    <row r="5" spans="2:15" ht="24.750000">
-      <c r="B5" s="91" t="s">
+      <c r="K4" s="115"/>
+      <c r="L4" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="117"/>
+    </row>
+    <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="B5" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="93"/>
-    </row>
-    <row r="6" spans="2:15" ht="17.250000">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="89"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
@@ -4463,275 +4092,245 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="46">
         <v>1</v>
       </c>
       <c r="C7" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>145</v>
-      </c>
       <c r="E7" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="104">
-        <v>4</v>
+        <v>141</v>
+      </c>
+      <c r="F7" s="61">
+        <v>2</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="L7" s="18">
+        <v>10</v>
+      </c>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="47">
         <v>2</v>
       </c>
-      <c r="C8" s="110" t="s">
-        <v>141</v>
+      <c r="C8" s="67" t="s">
+        <v>147</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="62" t="s">
         <v>156</v>
       </c>
       <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="30" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="20"/>
-    </row>
-    <row r="9" spans="2:15">
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="47">
         <v>3</v>
       </c>
-      <c r="C9" s="110" t="s">
-        <v>142</v>
+      <c r="C9" s="67" t="s">
+        <v>139</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="105" t="s">
-        <v>157</v>
+        <v>75</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>156</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="30" t="s">
-        <v>163</v>
-      </c>
+      <c r="I9" s="30"/>
       <c r="J9" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="41" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
+        <v>91</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="41"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="47">
         <v>4</v>
       </c>
-      <c r="C10" s="110" t="s">
-        <v>143</v>
+      <c r="C10" s="67" t="s">
+        <v>146</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="105" t="s">
-        <v>158</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F10" s="62"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="30"/>
-      <c r="J10" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="M10" s="41"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="20"/>
       <c r="O10" s="26"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="47">
         <v>5</v>
       </c>
-      <c r="C11" s="110" t="s">
-        <v>144</v>
+      <c r="C11" s="67" t="s">
+        <v>152</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="105">
-        <v>10</v>
+        <v>153</v>
+      </c>
+      <c r="F11" s="62">
+        <v>1</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="30"/>
       <c r="J11" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="K11" s="21"/>
+        <v>157</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>158</v>
+      </c>
       <c r="L11" s="31"/>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="M11" s="41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="47">
         <v>6</v>
       </c>
-      <c r="C12" s="110" t="s">
-        <v>166</v>
+      <c r="C12" s="67" t="s">
+        <v>149</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="105"/>
+        <v>153</v>
+      </c>
+      <c r="F12" s="62">
+        <v>1</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="30"/>
       <c r="J12" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="M12" s="115"/>
-    </row>
-    <row r="13" spans="2:15">
+        <v>159</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12" s="41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="47">
         <v>7</v>
       </c>
-      <c r="C13" s="110" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="117">
-        <v>4</v>
-      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
-        <v>169</v>
-      </c>
+      <c r="H13" s="16"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="30" t="s">
-        <v>169</v>
-      </c>
+      <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
-      <c r="M13" s="41" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="M13" s="72"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="47">
         <v>8</v>
       </c>
-      <c r="C14" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="105">
-        <v>1</v>
-      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="M14" s="115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="41"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="47">
         <v>9</v>
       </c>
-      <c r="C15" s="110"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="105"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
       <c r="K15" s="31"/>
       <c r="L15" s="30"/>
-      <c r="M15" s="115"/>
-    </row>
-    <row r="16" spans="2:15">
+      <c r="M15" s="72"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="47">
         <v>10</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="40"/>
-    </row>
-    <row r="17" spans="2:16">
+      <c r="C16" s="67"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="72"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="47">
         <v>11</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
-      <c r="F17" s="106"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
@@ -4740,14 +4339,14 @@
       <c r="L17" s="38"/>
       <c r="M17" s="60"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="47">
         <v>12</v>
       </c>
-      <c r="C18" s="113"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="111"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -4756,14 +4355,14 @@
       <c r="L18" s="31"/>
       <c r="M18" s="41"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="47">
         <v>13</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="111"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -4772,14 +4371,14 @@
       <c r="L19" s="16"/>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="47">
         <v>14</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="111"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -4788,14 +4387,14 @@
       <c r="L20" s="16"/>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="47">
         <v>15</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="111"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -4805,14 +4404,14 @@
       <c r="M21" s="20"/>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="47">
         <v>16</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="111"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -4821,7 +4420,7 @@
       <c r="L22" s="16"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="47">
         <v>17</v>
       </c>
@@ -4837,7 +4436,7 @@
       <c r="L23" s="36"/>
       <c r="M23" s="42"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="47">
         <v>18</v>
       </c>
@@ -4853,14 +4452,14 @@
       <c r="L24" s="36"/>
       <c r="M24" s="42"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="47">
         <v>19</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="111"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -4869,14 +4468,14 @@
       <c r="L25" s="16"/>
       <c r="M25" s="20"/>
     </row>
-    <row r="26" spans="2:16" ht="17.250000">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="48">
         <v>20</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
-      <c r="F26" s="114"/>
+      <c r="F26" s="71"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
@@ -4885,41 +4484,41 @@
       <c r="L26" s="22"/>
       <c r="M26" s="25"/>
     </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="94" t="s">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="98"/>
-    </row>
-    <row r="28" spans="2:16" ht="17.250000">
-      <c r="B28" s="99" t="s">
+      <c r="C27" s="91"/>
+      <c r="D27" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="94"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="101" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="103"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4938,116 +4537,115 @@
     <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="c0504d"/>
+    <tabColor rgb="FFC0504D"/>
   </sheetPr>
-  <dimension ref="B2:P28"/>
+  <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87500000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="7.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="18.25499916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="17.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="11.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="10" width="7.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="11" max="11" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="12" width="17.12999916" customWidth="1" outlineLevel="0"/>
-    <col min="13" max="13" width="30.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="14" max="14" width="8.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="15" max="15" width="27.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="16" max="16384" width="8.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="13" width="30.625" customWidth="1"/>
+    <col min="14" max="14" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="27" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.250000" customHeight="1"/>
-    <row r="2" spans="2:15">
-      <c r="B2" s="73" t="s">
+    <row r="1" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="82"/>
-    </row>
-    <row r="4" spans="2:15" ht="17.250000">
-      <c r="B4" s="83" t="s">
+      <c r="C2" s="101"/>
+      <c r="D2" s="102" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="109"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85">
+      <c r="C4" s="111"/>
+      <c r="D4" s="112">
         <v>45345</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88" t="s">
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="90"/>
-    </row>
-    <row r="5" spans="2:15" ht="24.750000">
-      <c r="B5" s="91" t="s">
+      <c r="K4" s="115"/>
+      <c r="L4" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="117"/>
+    </row>
+    <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="B5" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="93"/>
-    </row>
-    <row r="6" spans="2:15" ht="17.250000">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="89"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="43" t="s">
         <v>3</v>
       </c>
@@ -5085,24 +4683,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="46">
         <v>1</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="104">
-        <v>4</v>
+        <v>155</v>
+      </c>
+      <c r="F7" s="61">
+        <v>2</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="28"/>
@@ -5111,161 +4709,147 @@
       <c r="L7" s="18"/>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="47">
         <v>2</v>
       </c>
-      <c r="C8" s="110" t="s">
-        <v>187</v>
+      <c r="C8" s="67" t="s">
+        <v>165</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="105">
+        <v>173</v>
+      </c>
+      <c r="F8" s="62">
         <v>4</v>
       </c>
       <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" s="30"/>
+      <c r="H8" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>178</v>
+      </c>
       <c r="J8" s="30" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="47">
         <v>3</v>
       </c>
-      <c r="C9" s="110" t="s">
-        <v>188</v>
+      <c r="C9" s="67" t="s">
+        <v>166</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" s="105">
-        <v>1000</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F9" s="62"/>
       <c r="G9" s="16"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="L9" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="M9" s="41"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="47">
         <v>4</v>
       </c>
-      <c r="C10" s="110" t="s">
-        <v>189</v>
+      <c r="C10" s="67" t="s">
+        <v>167</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="105"/>
+        <v>175</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>176</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="K10" s="16"/>
-      <c r="L10" s="30" t="s">
-        <v>170</v>
-      </c>
+      <c r="L10" s="30"/>
       <c r="M10" s="41"/>
       <c r="O10" s="26"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="47">
         <v>5</v>
       </c>
-      <c r="C11" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="105">
-        <v>1</v>
-      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="M11" s="115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="J11" s="30"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="72"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="47">
         <v>6</v>
       </c>
-      <c r="C12" s="110"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="105"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
       <c r="K12" s="31"/>
       <c r="L12" s="30"/>
-      <c r="M12" s="115"/>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="M12" s="72"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="47">
         <v>7</v>
       </c>
-      <c r="C13" s="110"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="105"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
-      <c r="M13" s="115"/>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="M13" s="72"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="47">
         <v>8</v>
       </c>
-      <c r="C14" s="110"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="105"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="30"/>
@@ -5274,14 +4858,14 @@
       <c r="L14" s="30"/>
       <c r="M14" s="41"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="47">
         <v>9</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
@@ -5290,7 +4874,7 @@
       <c r="L15" s="38"/>
       <c r="M15" s="60"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="47">
         <v>10</v>
       </c>
@@ -5306,14 +4890,14 @@
       <c r="L16" s="35"/>
       <c r="M16" s="40"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="47">
         <v>11</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
-      <c r="F17" s="106"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
@@ -5322,14 +4906,14 @@
       <c r="L17" s="38"/>
       <c r="M17" s="60"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="47">
         <v>12</v>
       </c>
-      <c r="C18" s="113"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="111"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -5338,14 +4922,14 @@
       <c r="L18" s="31"/>
       <c r="M18" s="41"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="47">
         <v>13</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="111"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -5354,14 +4938,14 @@
       <c r="L19" s="16"/>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="47">
         <v>14</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="111"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -5370,14 +4954,14 @@
       <c r="L20" s="16"/>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="47">
         <v>15</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="111"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -5387,14 +4971,14 @@
       <c r="M21" s="20"/>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="47">
         <v>16</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="111"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -5403,7 +4987,7 @@
       <c r="L22" s="16"/>
       <c r="M22" s="20"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="47">
         <v>17</v>
       </c>
@@ -5419,7 +5003,7 @@
       <c r="L23" s="36"/>
       <c r="M23" s="42"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="47">
         <v>18</v>
       </c>
@@ -5435,14 +5019,14 @@
       <c r="L24" s="36"/>
       <c r="M24" s="42"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="47">
         <v>19</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="111"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -5451,14 +5035,14 @@
       <c r="L25" s="16"/>
       <c r="M25" s="20"/>
     </row>
-    <row r="26" spans="2:16" ht="17.250000">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="48">
         <v>20</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
-      <c r="F26" s="114"/>
+      <c r="F26" s="71"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
@@ -5467,41 +5051,41 @@
       <c r="L26" s="22"/>
       <c r="M26" s="25"/>
     </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="94" t="s">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96" t="s">
+      <c r="C27" s="91"/>
+      <c r="D27" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="94"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="98"/>
-    </row>
-    <row r="28" spans="2:16" ht="17.250000">
-      <c r="B28" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="101" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="103"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5520,8 +5104,609 @@
     <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="B1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="13" width="30.625" customWidth="1"/>
+    <col min="14" max="14" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="27" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="109"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112">
+        <v>45350</v>
+      </c>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="117"/>
+    </row>
+    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="89"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="46">
+        <v>1</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="61">
+        <v>6</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="47">
+        <v>2</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="62">
+        <v>4000</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="47">
+        <v>3</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="62">
+        <v>4</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="47">
+        <v>4</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="O10" s="26"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="47">
+        <v>5</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="62">
+        <v>6</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="72"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="47">
+        <v>6</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="62">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="M12" s="72" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="47">
+        <v>7</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="72"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="47">
+        <v>8</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="41"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="47">
+        <v>9</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="60"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="47">
+        <v>10</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="40"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="47">
+        <v>11</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="60"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="47">
+        <v>12</v>
+      </c>
+      <c r="C18" s="70"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="41"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="47">
+        <v>13</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="47">
+        <v>14</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="47">
+        <v>15</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="20"/>
+      <c r="P21" s="17"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="47">
+        <v>16</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="20"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="47">
+        <v>17</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="42"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="47">
+        <v>18</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="42"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="47">
+        <v>19</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="20"/>
+    </row>
+    <row r="26" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="48">
+        <v>20</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="25"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="94"/>
+    </row>
+    <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/게시판테이블명세서.xlsx
+++ b/src/게시판테이블명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7410" tabRatio="820" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7410" tabRatio="820" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스 명세서" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="199">
   <si>
     <t>Project Name</t>
   </si>
@@ -296,39 +296,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>YSDATE</t>
-    </r>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>O</t>
   </si>
   <si>
     <t>O</t>
@@ -502,12 +469,6 @@
     <t>NUMBER</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>avatar</t>
   </si>
   <si>
@@ -555,10 +516,6 @@
   </si>
   <si>
     <t>300 CHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -784,6 +741,10 @@
   <si>
     <t>REFERENCES member(mno)</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1870,6 +1831,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1907,60 +1922,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2600,7 +2561,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="73" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -2706,8 +2667,8 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2728,78 +2689,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107" t="s">
+      <c r="C3" s="93"/>
+      <c r="D3" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="109"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112">
+      <c r="C4" s="98"/>
+      <c r="D4" s="99">
         <v>45345</v>
       </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="115" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116" t="s">
+      <c r="K4" s="102"/>
+      <c r="L4" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="117"/>
+      <c r="M4" s="104"/>
     </row>
     <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="43" t="s">
@@ -2855,9 +2816,7 @@
       <c r="F7" s="61">
         <v>4</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>91</v>
-      </c>
+      <c r="G7" s="28"/>
       <c r="H7" s="18"/>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
@@ -2884,9 +2843,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="30" t="s">
-        <v>92</v>
-      </c>
+      <c r="J8" s="30"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="20"/>
@@ -2909,16 +2866,12 @@
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>94</v>
-      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="41" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
@@ -2940,9 +2893,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="30"/>
-      <c r="J10" s="30" t="s">
-        <v>95</v>
-      </c>
+      <c r="J10" s="30"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="20"/>
@@ -2966,16 +2917,12 @@
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>95</v>
-      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="21"/>
       <c r="L11" s="16"/>
       <c r="M11" s="66" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
@@ -2996,16 +2943,12 @@
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>95</v>
-      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="21"/>
       <c r="L12" s="16"/>
       <c r="M12" s="41" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
@@ -3025,13 +2968,9 @@
       <c r="G13" s="16"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="30" t="s">
-        <v>98</v>
-      </c>
+      <c r="J13" s="30"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="30" t="s">
-        <v>90</v>
-      </c>
+      <c r="L13" s="30"/>
       <c r="M13" s="41"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
@@ -3053,15 +2992,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>93</v>
-      </c>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
       <c r="L14" s="30"/>
       <c r="M14" s="60" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
@@ -3081,19 +3016,15 @@
         <v>2</v>
       </c>
       <c r="G15" s="37"/>
-      <c r="H15" s="35" t="s">
-        <v>143</v>
-      </c>
+      <c r="H15" s="35"/>
       <c r="I15" s="37"/>
-      <c r="J15" s="35" t="s">
-        <v>95</v>
-      </c>
+      <c r="J15" s="35"/>
       <c r="K15" s="37"/>
-      <c r="L15" s="35">
-        <v>10</v>
+      <c r="L15" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="M15" s="40" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
@@ -3115,17 +3046,15 @@
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="33"/>
+      <c r="K16" s="35" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>99</v>
       </c>
       <c r="L16" s="38" t="s">
         <v>89</v>
       </c>
       <c r="M16" s="60" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
@@ -3292,43 +3221,48 @@
       <c r="M26" s="25"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92" t="s">
+      <c r="C27" s="109"/>
+      <c r="D27" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="94"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="112"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="99"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -3337,11 +3271,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3378,78 +3307,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="109"/>
+      <c r="B3" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112">
+      <c r="C4" s="98"/>
+      <c r="D4" s="99">
         <v>45345</v>
       </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="115" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116" t="s">
-        <v>108</v>
-      </c>
-      <c r="M4" s="117"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="104"/>
     </row>
     <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="43" t="s">
@@ -3494,19 +3423,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="E7" s="28" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F7" s="61">
         <v>6</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="28"/>
@@ -3520,22 +3449,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>117</v>
-      </c>
       <c r="E8" s="30" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="30" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
@@ -3546,13 +3475,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>118</v>
-      </c>
       <c r="E9" s="30" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F9" s="62">
         <v>4000</v>
@@ -3561,7 +3490,7 @@
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -3572,29 +3501,29 @@
         <v>4</v>
       </c>
       <c r="C10" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>119</v>
-      </c>
       <c r="E10" s="30" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F10" s="62">
         <v>4</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="41" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="O10" s="26"/>
     </row>
@@ -3603,24 +3532,24 @@
         <v>5</v>
       </c>
       <c r="C11" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>120</v>
-      </c>
       <c r="E11" s="30" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F11" s="62"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="30"/>
       <c r="J11" s="30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="31" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M11" s="20"/>
     </row>
@@ -3629,10 +3558,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>114</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>121</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>81</v>
@@ -3644,7 +3573,7 @@
       <c r="H12" s="16"/>
       <c r="I12" s="30"/>
       <c r="J12" s="30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="30">
@@ -3657,7 +3586,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>73</v>
@@ -3672,16 +3601,16 @@
       <c r="H13" s="16"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="M13" s="72" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
@@ -3894,43 +3823,48 @@
       <c r="M26" s="25"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="94"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="112"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="99"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="115" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -3939,11 +3873,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3958,8 +3887,8 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3981,78 +3910,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="109"/>
+      <c r="B3" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112">
+      <c r="C4" s="98"/>
+      <c r="D4" s="99">
         <v>45345</v>
       </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="115" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116" t="s">
-        <v>108</v>
-      </c>
-      <c r="M4" s="117"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="104"/>
     </row>
     <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="43" t="s">
@@ -4097,20 +4026,18 @@
         <v>1</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F7" s="61">
         <v>2</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>142</v>
-      </c>
+      <c r="G7" s="28"/>
       <c r="H7" s="18"/>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
@@ -4125,25 +4052,21 @@
         <v>2</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="30"/>
-      <c r="I8" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>91</v>
-      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="41"/>
@@ -4153,23 +4076,21 @@
         <v>3</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="30" t="s">
-        <v>91</v>
-      </c>
+      <c r="J9" s="30"/>
       <c r="K9" s="16"/>
       <c r="L9" s="30"/>
       <c r="M9" s="41"/>
@@ -4179,13 +4100,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>146</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>155</v>
       </c>
       <c r="F10" s="62"/>
       <c r="G10" s="16"/>
@@ -4202,13 +4123,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F11" s="62">
         <v>1</v>
@@ -4216,15 +4137,13 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="30" t="s">
-        <v>157</v>
-      </c>
+      <c r="J11" s="30"/>
       <c r="K11" s="31" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="L11" s="31"/>
       <c r="M11" s="41" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
@@ -4232,13 +4151,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F12" s="62">
         <v>1</v>
@@ -4246,17 +4165,15 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="30" t="s">
-        <v>159</v>
-      </c>
+      <c r="J12" s="30"/>
       <c r="K12" s="31" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="M12" s="41" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
@@ -4485,43 +4402,48 @@
       <c r="M26" s="25"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="94"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="112"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="99"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="115" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -4530,11 +4452,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4572,78 +4489,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="109"/>
+      <c r="B3" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112">
+      <c r="C4" s="98"/>
+      <c r="D4" s="99">
         <v>45345</v>
       </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="115" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116" t="s">
-        <v>108</v>
-      </c>
-      <c r="M4" s="117"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="104"/>
     </row>
     <row r="5" spans="2:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="43" t="s">
@@ -4688,19 +4605,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F7" s="61">
         <v>2</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="28"/>
@@ -4714,31 +4631,31 @@
         <v>2</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F8" s="62">
         <v>4</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="30" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="41" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
@@ -4746,24 +4663,24 @@
         <v>3</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F9" s="62"/>
       <c r="G9" s="16"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="30" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="M9" s="41"/>
     </row>
@@ -4772,22 +4689,22 @@
         <v>4</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F10" s="62" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="30"/>
@@ -5052,43 +4969,48 @@
       <c r="M26" s="25"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="94"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="112"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="99"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -5097,11 +5019,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5116,7 +5033,7 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -5139,78 +5056,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="109"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112">
+      <c r="C4" s="98"/>
+      <c r="D4" s="99">
         <v>45350</v>
       </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="115" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116" t="s">
+      <c r="K4" s="102"/>
+      <c r="L4" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="117"/>
+      <c r="M4" s="104"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="43" t="s">
@@ -5255,19 +5172,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>184</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>194</v>
       </c>
       <c r="F7" s="61">
         <v>6</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="28"/>
@@ -5281,13 +5198,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F8" s="62">
         <v>4000</v>
@@ -5296,7 +5213,7 @@
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="30" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
@@ -5307,29 +5224,29 @@
         <v>3</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F9" s="62">
         <v>4</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="30" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="30"/>
       <c r="M9" s="41" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
@@ -5337,24 +5254,24 @@
         <v>4</v>
       </c>
       <c r="C10" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>198</v>
-      </c>
       <c r="E10" s="30" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F10" s="62"/>
       <c r="G10" s="16"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="30" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="M10" s="41"/>
       <c r="O10" s="26"/>
@@ -5364,13 +5281,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>192</v>
-      </c>
       <c r="E11" s="30" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F11" s="62">
         <v>6</v>
@@ -5388,13 +5305,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F12" s="62">
         <v>1</v>
@@ -5403,16 +5320,16 @@
       <c r="H12" s="16"/>
       <c r="I12" s="30"/>
       <c r="J12" s="30" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M12" s="72" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
@@ -5641,48 +5558,43 @@
       <c r="M26" s="25"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92" t="s">
+      <c r="C27" s="109"/>
+      <c r="D27" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="94"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="112"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="97" t="s">
+      <c r="C28" s="114"/>
+      <c r="D28" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="99"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -5691,6 +5603,11 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
